--- a/FICC-code_to_connect/pricing_engine_examples.xlsx
+++ b/FICC-code_to_connect/pricing_engine_examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\work-doc\Admin\Campus Hiring 2023\Ficc-code_to_connect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seahp\OneDrive\Documents\GitHub\boa-ficc-f2\FICC-code_to_connect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2620F-9C36-4107-B008-4A6382EF8BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8EB491-4C19-4598-943D-874F2CF4DB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" activeTab="1" xr2:uid="{80F462B5-D162-41C4-956D-FC4E87BCAE70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{80F462B5-D162-41C4-956D-FC4E87BCAE70}"/>
   </bookViews>
   <sheets>
     <sheet name="example-1" sheetId="2" r:id="rId1"/>
@@ -1200,7 +1200,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"4M"</t>
+      <t>"1M"</t>
     </r>
     <r>
       <rPr>
@@ -1236,16 +1236,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> },</t>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
     </r>
   </si>
   <si>
@@ -1259,6 +1259,78 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>"EventId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"EventType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FXMidEvent"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>"Ccy"</t>
     </r>
     <r>
@@ -1295,43 +1367,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"Tenor"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"1M"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"EventId"</t>
+      <t>"rate"</t>
     </r>
     <r>
       <rPr>
@@ -1349,16 +1385,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> }</t>
+      <t>1.22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> },</t>
     </r>
   </si>
   <si>
@@ -1390,7 +1426,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1426,7 +1462,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"FXMidEvent"</t>
+      <t>"ConfigEvent"</t>
     </r>
     <r>
       <rPr>
@@ -1444,25 +1480,25 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"Ccy"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"GBX"</t>
+      <t>"m"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
     </r>
     <r>
       <rPr>
@@ -1480,7 +1516,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"rate"</t>
+      <t>"b"</t>
     </r>
     <r>
       <rPr>
@@ -1498,7 +1534,79 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.22</t>
+      <t>0.08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"DivisorRatio"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Spread"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1539,7 +1647,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>2</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1575,7 +1683,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"ConfigEvent"</t>
+      <t>"TradeEvent"</t>
     </r>
     <r>
       <rPr>
@@ -1593,7 +1701,115 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"m"</t>
+      <t>"BuySell"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"buy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Ccy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GBX"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Tenor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1M"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Quantity"</t>
     </r>
     <r>
       <rPr>
@@ -1611,7 +1827,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.01</t>
+      <t>10000</t>
     </r>
     <r>
       <rPr>
@@ -1629,97 +1845,25 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"b"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"DivisorRatio"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>100000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Spread"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
+      <t>"TradeId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"T1"</t>
     </r>
     <r>
       <rPr>
@@ -1760,7 +1904,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>3</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -1904,7 +2048,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"1M"</t>
+      <t>"2M"</t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +2084,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>10000</t>
+      <t>20000</t>
     </r>
     <r>
       <rPr>
@@ -1976,16 +2120,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"T1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> },</t>
+      <t>"T2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
     </r>
   </si>
   <si>
@@ -1999,6 +2143,78 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>"Ccy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GBX"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Tenor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1M"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>"EventId"</t>
     </r>
     <r>
@@ -2026,228 +2242,48 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"EventType"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"TradeEvent"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"BuySell"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"buy"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Ccy"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"GBX"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Tenor"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"2M"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Quantity"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>20000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"TradeId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"T2"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> }</t>
+      <t xml:space="preserve"> }    </t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">    { </t>
+      <t>    {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"EventId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -2328,7 +2364,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"EventId"</t>
+      <t>"Position"</t>
     </r>
     <r>
       <rPr>
@@ -2346,16 +2382,124 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> }    </t>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Bid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.1819</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Ask"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.1821</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"QuoteStatus"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TRADABLE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
     </r>
   </si>
   <si>
@@ -2495,7 +2639,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>10000</t>
+      <t>5000</t>
     </r>
     <r>
       <rPr>
@@ -2531,7 +2675,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.1819</t>
+      <t>1.2009</t>
     </r>
     <r>
       <rPr>
@@ -2567,7 +2711,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.1821</t>
+      <t>1.2011</t>
     </r>
     <r>
       <rPr>
@@ -2644,7 +2788,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>4</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2662,6 +2806,42 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>"EventType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FXMidEvent"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>"Ccy"</t>
     </r>
     <r>
@@ -2698,43 +2878,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"Tenor"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"1M"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Position"</t>
+      <t>"rate"</t>
     </r>
     <r>
       <rPr>
@@ -2752,124 +2896,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>5000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Bid"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1.2009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Ask"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1.2011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"QuoteStatus"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"TRADABLE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
+      <t>1.22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>},</t>
     </r>
   </si>
   <si>
@@ -2901,7 +2937,151 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"EventType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ConfigEvent"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"m"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"b"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"DivisorRatio"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100000</t>
     </r>
     <r>
       <rPr>
@@ -2919,88 +3099,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"EventType"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"FXMidEvent"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Ccy"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"GBX"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"rate"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
+      <t>"Spread"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -3009,7 +3117,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.22</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -3050,7 +3158,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>2</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -3086,7 +3194,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"ConfigEvent"</t>
+      <t>"TradeEvent"</t>
     </r>
     <r>
       <rPr>
@@ -3104,7 +3212,115 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"m"</t>
+      <t>"BuySell"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"buy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Ccy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GBX"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Tenor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1M"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Quantity"</t>
     </r>
     <r>
       <rPr>
@@ -3122,7 +3338,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.01</t>
+      <t>10000</t>
     </r>
     <r>
       <rPr>
@@ -3140,97 +3356,25 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"b"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"DivisorRatio"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>100000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Spread"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
+      <t>"TradeId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"T1"</t>
     </r>
     <r>
       <rPr>
@@ -3271,7 +3415,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>3</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -3343,7 +3487,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"buy"</t>
+      <t>"sell"</t>
     </r>
     <r>
       <rPr>
@@ -3451,7 +3595,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>10000</t>
+      <t>5000</t>
     </r>
     <r>
       <rPr>
@@ -3487,7 +3631,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"T1"</t>
+      <t>"T2"</t>
     </r>
     <r>
       <rPr>
@@ -3528,7 +3672,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>4</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -3672,7 +3816,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"1M"</t>
+      <t>"2M"</t>
     </r>
     <r>
       <rPr>
@@ -3744,16 +3888,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"T2"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>},</t>
+      <t>"T3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
     </r>
   </si>
   <si>
@@ -3767,6 +3911,78 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>"Ccy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GBX"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Tenor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1M"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>"EventId"</t>
     </r>
     <r>
@@ -3776,7 +3992,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">: </t>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -3785,223 +4001,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"EventType"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"TradeEvent"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"BuySell"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"sell"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Ccy"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"GBX"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Tenor"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"2M"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Quantity"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>5000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"TradeId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"T3"</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -4024,6 +4024,78 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>"EventId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"EventType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FXMidEvent"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>"Ccy"</t>
     </r>
     <r>
@@ -4060,7 +4132,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"Tenor"</t>
+      <t>"rate"</t>
     </r>
     <r>
       <rPr>
@@ -4074,56 +4146,20 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"1M"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"EventId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <color rgb="FFB5CEA8"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
+      <t>1.22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>},</t>
     </r>
   </si>
   <si>
@@ -4155,7 +4191,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -4191,7 +4227,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"FXMidEvent"</t>
+      <t>"ConfigEvent"</t>
     </r>
     <r>
       <rPr>
@@ -4209,7 +4245,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"Ccy"</t>
+      <t>"m"</t>
     </r>
     <r>
       <rPr>
@@ -4223,11 +4259,11 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"GBX"</t>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
     </r>
     <r>
       <rPr>
@@ -4245,7 +4281,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"rate"</t>
+      <t>"b"</t>
     </r>
     <r>
       <rPr>
@@ -4263,7 +4299,79 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.22</t>
+      <t>0.08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"DivisorRatio"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Spread"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -4304,7 +4412,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>2</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -4340,7 +4448,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"ConfigEvent"</t>
+      <t>"TradeEvent"</t>
     </r>
     <r>
       <rPr>
@@ -4358,7 +4466,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"m"</t>
+      <t>"BuySell"</t>
     </r>
     <r>
       <rPr>
@@ -4372,11 +4480,119 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"buy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Ccy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GBX"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Tenor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1M"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Quantity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FFB5CEA8"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.01</t>
+      <t>10000</t>
     </r>
     <r>
       <rPr>
@@ -4394,7 +4610,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"b"</t>
+      <t>"TradeId"</t>
     </r>
     <r>
       <rPr>
@@ -4408,83 +4624,11 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"DivisorRatio"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>100000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Spread"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"T1"</t>
     </r>
     <r>
       <rPr>
@@ -4525,7 +4669,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>3</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -4597,7 +4741,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"buy"</t>
+      <t>"sell"</t>
     </r>
     <r>
       <rPr>
@@ -4705,7 +4849,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>10000</t>
+      <t>5000</t>
     </r>
     <r>
       <rPr>
@@ -4741,7 +4885,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"T1"</t>
+      <t>"T2"</t>
     </r>
     <r>
       <rPr>
@@ -4782,7 +4926,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>4</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -4854,7 +4998,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"sell"</t>
+      <t>"buy"</t>
     </r>
     <r>
       <rPr>
@@ -4926,7 +5070,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"1M"</t>
+      <t>"2M"</t>
     </r>
     <r>
       <rPr>
@@ -4962,7 +5106,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>5000</t>
+      <t>20000</t>
     </r>
     <r>
       <rPr>
@@ -4998,7 +5142,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"T2"</t>
+      <t>"T3"</t>
     </r>
     <r>
       <rPr>
@@ -5039,7 +5183,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>5</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -5075,7 +5219,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"TradeEvent"</t>
+      <t>"FXMidEvent"</t>
     </r>
     <r>
       <rPr>
@@ -5093,7 +5237,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"BuySell"</t>
+      <t>"Ccy"</t>
     </r>
     <r>
       <rPr>
@@ -5111,7 +5255,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"buy"</t>
+      <t>"GBX"</t>
     </r>
     <r>
       <rPr>
@@ -5129,88 +5273,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"Ccy"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"GBX"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Tenor"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"2M"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Quantity"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
+      <t>"rate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -5219,43 +5291,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>20000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"TradeId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"T3"</t>
+      <t>1.56</t>
     </r>
     <r>
       <rPr>
@@ -5296,7 +5332,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>6</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -5332,7 +5368,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"FXMidEvent"</t>
+      <t>"TradeEvent"</t>
     </r>
     <r>
       <rPr>
@@ -5350,6 +5386,42 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>"BuySell"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"buy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>"Ccy"</t>
     </r>
     <r>
@@ -5386,16 +5458,52 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"rate"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
+      <t>"Tenor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1M"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Quantity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -5404,7 +5512,43 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.56</t>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TradeId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"T4"</t>
     </r>
     <r>
       <rPr>
@@ -5445,7 +5589,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>7</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -5589,7 +5733,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"1M"</t>
+      <t>"2M"</t>
     </r>
     <r>
       <rPr>
@@ -5625,7 +5769,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>5000</t>
+      <t>20000</t>
     </r>
     <r>
       <rPr>
@@ -5661,16 +5805,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"T4"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>},</t>
+      <t>"T5"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
     </r>
   </si>
   <si>
@@ -5684,6 +5828,78 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>"Ccy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GBX"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Tenor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1M"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>"EventId"</t>
     </r>
     <r>
@@ -5702,232 +5918,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"EventType"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"TradeEvent"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"BuySell"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"buy"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Ccy"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"GBX"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Tenor"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"2M"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Quantity"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>20000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"TradeId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"T5"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>},</t>
     </r>
   </si>
   <si>
@@ -6031,16 +6031,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>},</t>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
     </r>
   </si>
   <si>
@@ -6054,6 +6054,42 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>"EventId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>"Ccy"</t>
     </r>
     <r>
@@ -6063,7 +6099,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>:</t>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -6081,7 +6117,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>,</t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -6099,7 +6135,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>:</t>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -6117,25 +6153,25 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"EventId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Position"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -6144,16 +6180,124 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Bid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Ask"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"QuoteStatus"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TRADABLE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>},</t>
     </r>
   </si>
   <si>
@@ -6185,7 +6329,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>4</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -6293,7 +6437,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>5000</t>
+      <t>10000</t>
     </r>
     <r>
       <rPr>
@@ -6329,7 +6473,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.2009</t>
+      <t>1.5219</t>
     </r>
     <r>
       <rPr>
@@ -6365,7 +6509,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1.2011</t>
+      <t>1.5221</t>
     </r>
     <r>
       <rPr>
@@ -6410,7 +6554,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>},</t>
+      <t>}</t>
     </r>
   </si>
   <si>
@@ -6442,7 +6586,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>8</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -6582,11 +6726,11 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1.5219</t>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"NA"</t>
     </r>
     <r>
       <rPr>
@@ -6618,11 +6762,11 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1.5221</t>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"NA"</t>
     </r>
     <r>
       <rPr>
@@ -6658,21 +6802,93 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"TRADABLE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
+      <t>"EXCEPTION"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>},</t>
     </r>
   </si>
   <si>
     <r>
-      <t>    {</t>
+      <t xml:space="preserve">    { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Ccy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GBX"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Tenor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1M"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -6708,223 +6924,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Ccy"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"GBX"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Tenor"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"1M"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Position"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>10000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Bid"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"NA"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Ask"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"NA"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"QuoteStatus"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"EXCEPTION"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>},</t>
+      <t xml:space="preserve"> },</t>
     </r>
   </si>
 </sst>
@@ -7512,27 +7512,27 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="133.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="133.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>44</v>
       </c>
@@ -7547,14 +7547,14 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
@@ -7575,9 +7575,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -7600,12 +7600,12 @@
         <v>1.0979999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>45</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
         <v>2</v>
       </c>
@@ -7648,19 +7648,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>19</v>
@@ -7687,7 +7687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>45</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -7747,22 +7747,22 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>7</v>
       </c>
@@ -7777,7 +7777,7 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>36</v>
       </c>
@@ -7856,62 +7856,62 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -7930,32 +7930,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D40820E-3D3A-4617-8AFB-763426E28C87}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="127.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="127.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>44</v>
       </c>
@@ -7969,14 +7969,14 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
-        <v>73</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
@@ -7997,9 +7997,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -8022,14 +8022,14 @@
         <v>1.0979999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>19</v>
@@ -8050,7 +8050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>45</v>
       </c>
@@ -8073,19 +8073,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>19</v>
@@ -8112,7 +8112,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>45</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
         <v>4</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
@@ -8199,22 +8199,22 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="13.15" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="19" t="s">
         <v>7</v>
@@ -8230,7 +8230,7 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:12" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
         <v>33</v>
@@ -8266,7 +8266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="4">
         <v>5</v>
@@ -8322,33 +8322,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D64DBA-AB72-4DF2-827E-F45EA34C0A70}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="125.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="125.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>44</v>
       </c>
@@ -8362,14 +8362,14 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
-        <v>79</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
@@ -8390,9 +8390,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -8415,9 +8415,9 @@
         <v>1.0979999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="4">
         <v>7</v>
@@ -8440,14 +8440,14 @@
         <v>1.4039999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
@@ -8468,9 +8468,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -8491,17 +8491,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="D12" s="5" t="s">
         <v>19</v>
@@ -8528,7 +8528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>44</v>
       </c>
@@ -8588,9 +8588,9 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="4">
         <v>5</v>
@@ -8618,9 +8618,9 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="4">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>45</v>
       </c>
@@ -8677,12 +8677,12 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>44</v>
       </c>
@@ -8700,9 +8700,9 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>33</v>
@@ -8738,9 +8738,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4">
         <v>4</v>
@@ -8782,7 +8782,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>45</v>
       </c>
@@ -8826,40 +8826,40 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
     </row>
-    <row r="26" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
     </row>
-    <row r="27" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
     </row>
-    <row r="28" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
     </row>
-    <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
     </row>
-    <row r="30" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
     </row>
-    <row r="31" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
     </row>
-    <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
     </row>
-    <row r="33" spans="1:1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
     </row>
-    <row r="35" spans="1:1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
     </row>
-    <row r="36" spans="1:1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
     </row>
   </sheetData>
@@ -8876,32 +8876,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41B5482-696D-483C-9A77-3E88E060BBE8}">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="127.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="127.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>44</v>
       </c>
@@ -8917,12 +8917,12 @@
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>60</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>61</v>
       </c>
@@ -8970,12 +8970,12 @@
         <v>1.0979999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>45</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -9025,19 +9025,19 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>19</v>
@@ -9064,7 +9064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>45</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -9124,27 +9124,27 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="13.15" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="C18" s="19" t="s">
         <v>7</v>
@@ -9160,7 +9160,7 @@
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
     </row>
-    <row r="19" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="C19" s="3" t="s">
         <v>33</v>
@@ -9196,7 +9196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="C20" s="18">
         <v>3</v>
@@ -9233,7 +9233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="C21" s="4">
         <v>4</v>
@@ -9269,264 +9269,264 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="E37" s="14"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="E40" s="14"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="16"/>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="16"/>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="16"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
     </row>
-    <row r="50" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
     </row>
-    <row r="51" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
     </row>
-    <row r="52" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
     </row>
-    <row r="53" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
     </row>
-    <row r="54" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" s="15"/>
     </row>
-    <row r="60" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" s="15"/>
     </row>
-    <row r="63" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="15"/>
     </row>
-    <row r="64" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="2:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="15"/>
     </row>
-    <row r="66" spans="2:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="15"/>
     </row>
-    <row r="67" spans="2:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="15"/>
     </row>
-    <row r="68" spans="2:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="15"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="14"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="14"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="14"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="14"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="14"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="14"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="14"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="14"/>
     </row>
   </sheetData>
